--- a/results/mp/deberta/corona/confidence/126/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.15/avg_0.004_scores.xlsx
@@ -85,10 +85,10 @@
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>fresh</t>
@@ -971,25 +971,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6536796536796536</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L15">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="M15">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -997,25 +997,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6382978723404256</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L16">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="M16">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1153,25 +1153,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5274390243902439</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L22">
         <v>173</v>
       </c>
       <c r="M22">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="10:17">
